--- a/data/trans_dic/P16B15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>18,36; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>63,96; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>58,93; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>94,55; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,46%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>94,84; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>93,91; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>90,79; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>96,02; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>97,34; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>93,72; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>97,72; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>96,45; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>94,68; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,42%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>91,75; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>97,94; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>91,68; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>97,69; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>98,23; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>95,41; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>96,39; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>99,04; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>95,78; 99,53</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>96,81; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>97,26; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>96,39; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>97,85; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>96,32; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>97,87; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>98,7; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>98,42; 100</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,47%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>93,73; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>97,8; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>93,07; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>90,89; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>95,5; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>97,96; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>94,37; 99,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>97,3; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>97,26; 100,0</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,07%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>95,99; 99,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>98,82; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>96,58; 99,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>97,33; 99,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>98,83; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>98,37; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>97,58; 99,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>99,08; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>98,01; 99,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,22 +632,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>78,47%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>86,62%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,74%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,36; 100,0</t>
+          <t>88,22; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,85; 100</t>
+          <t>92,97; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,47; 100</t>
+          <t>92,32; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,96; 100,0</t>
+          <t>92,56; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,01; 100</t>
+          <t>97,87; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>93,56; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>58,93; 100,0</t>
+          <t>93,4; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>94,55; 100</t>
+          <t>96,76; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,64; 100</t>
+          <t>96,13; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,17 +742,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -767,22 +767,22 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>98,42%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,84; 100</t>
+          <t>91,75; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,91; 100,0</t>
+          <t>97,94; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,79; 100,0</t>
+          <t>91,68; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>96,02; 100</t>
+          <t>97,69; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,34; 100</t>
+          <t>98,23; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,72; 100,0</t>
+          <t>95,41; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>97,72; 100</t>
+          <t>96,39; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,45; 100,0</t>
+          <t>99,04; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94,68; 100,0</t>
+          <t>95,78; 99,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>98,34%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -877,12 +877,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,35%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,75; 100,0</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,94; 100</t>
+          <t>96,81; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,68; 100,0</t>
+          <t>97,26; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>97,69; 100</t>
+          <t>96,39; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>98,23; 100</t>
+          <t>97,85; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>95,41; 100,0</t>
+          <t>96,32; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>96,39; 100,0</t>
+          <t>97,87; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>99,04; 100</t>
+          <t>98,7; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>95,78; 99,53</t>
+          <t>98,42; 100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -972,17 +972,17 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -992,17 +992,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,47%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>93,73; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,81; 100</t>
+          <t>97,8; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,26; 100</t>
+          <t>93,07; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,39; 100</t>
+          <t>90,89; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,85; 100</t>
+          <t>95,5; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,32; 100</t>
+          <t>97,96; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,87; 100</t>
+          <t>94,37; 99,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>98,7; 100</t>
+          <t>97,3; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>98,42; 100</t>
+          <t>97,26; 100,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,12 +1072,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1087,32 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,73%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>99,47%</t>
+          <t>99,07%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>93,73; 100,0</t>
+          <t>95,99; 99,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>97,8; 100</t>
+          <t>98,82; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,07; 100,0</t>
+          <t>96,58; 99,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,89; 100,0</t>
+          <t>97,33; 99,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>95,5; 100,0</t>
+          <t>98,83; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>97,96; 100</t>
+          <t>98,37; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>94,37; 99,35</t>
+          <t>97,58; 99,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>99,08; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>97,26; 100,0</t>
+          <t>98,01; 99,57</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>98,45%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>99,71%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>98,6%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>99,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>99,75%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>99,47%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>98,77%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>99,73%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>99,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>95,99; 99,56</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>98,82; 100,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>96,58; 99,67</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>97,33; 99,68</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>98,83; 100,0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>98,37; 100,0</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>97,58; 99,5</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>99,08; 100,0</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>98,01; 99,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,22 +686,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,22; 100,0</t>
+          <t>85,43; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,97; 100,0</t>
+          <t>93,86; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,32; 100,0</t>
+          <t>93,1; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,56; 100,0</t>
+          <t>91,54; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +711,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,56; 100,0</t>
+          <t>94,15; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,4; 100,0</t>
+          <t>92,28; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>96,76; 100,0</t>
+          <t>96,7; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,13; 100,0</t>
+          <t>96,12; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,75; 100,0</t>
+          <t>91,37; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,7 +806,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,68; 100,0</t>
+          <t>91,32; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,12 +821,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,41; 100,0</t>
+          <t>95,68; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>96,39; 100,0</t>
+          <t>96,68; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95,78; 99,53</t>
+          <t>95,84; 99,53</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>93,73; 100,0</t>
+          <t>93,96; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,17 +1026,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,07; 100,0</t>
+          <t>90,27; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,89; 100,0</t>
+          <t>91,08; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,5; 100,0</t>
+          <t>94,32; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,17 +1046,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,37; 99,35</t>
+          <t>94,51; 99,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>97,49; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>97,26; 100,0</t>
+          <t>97,82; 100,0</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95,99; 99,56</t>
+          <t>95,24; 99,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>98,82; 100,0</t>
+          <t>98,55; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96,58; 99,67</t>
+          <t>95,78; 99,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>97,33; 99,68</t>
+          <t>97,11; 99,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>98,83; 100,0</t>
+          <t>98,76; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>98,37; 100,0</t>
+          <t>98,1; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>97,58; 99,5</t>
+          <t>97,38; 99,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>99,08; 100,0</t>
+          <t>99,07; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,57</t>
+          <t>97,95; 99,68</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para bajar el colesterol fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39606</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>83127</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>73795</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>56667</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>95010</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>82728</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>96273</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>178137</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>156524</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34853; 40796</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>78971; 84134</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>69658; 74820</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>52668; 57534</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>92987; 95010</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>78809; 83705</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>90742; 98330</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>173228; 179144</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>152366; 158525</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55298</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>102230</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>93606</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>87992</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>118709</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>117558</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>143290</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>220940</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>211163</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>51383; 56233</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>100124; 102230</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>87643; 95973</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>85961; 87992</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>116602; 118709</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>113456; 118574</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>139444; 144225</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>218820; 220940</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>205616; 213547</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37301</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>68784</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>71363</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50634</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>98834</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>60408</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>87934</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>167618</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>131771</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>35426; 37301</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>66590; 68784</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>69411; 71363</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>48807; 50634</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>96706; 98834</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>58186; 60408</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>86062; 87934</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>165446; 167618</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>129683; 131771</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>55486</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>94973</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>68071</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>68809</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>120892</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>111582</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>124295</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>215865</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>179653</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>52918; 56320</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>92881; 94973</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>62315; 69035</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>64306; 70602</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>115045; 121969</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>109307; 111582</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>119955; 126095</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>211487; 216942</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>176680; 180617</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>187689</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>349115</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>306836</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>264102</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>433446</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>372275</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>451793</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>782561</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>679110</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>181581; 189808</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>345036; 350122</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>298069; 309831</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>259058; 265905</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>429140; 434523</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>367144; 374268</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>445413; 454825</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>777349; 784644</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>671390; 683254</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>